--- a/app/Licenciatura_em_Ciencias_Politicas.xlsx
+++ b/app/Licenciatura_em_Ciencias_Politicas.xlsx
@@ -23,30 +23,24 @@
     <sheet name="20150875" sheetId="13" r:id="rId16"/>
     <sheet name="20150887" sheetId="14" r:id="rId17"/>
     <sheet name="20150896" sheetId="15" r:id="rId18"/>
-    <sheet name="20154775" sheetId="16" r:id="rId19"/>
-    <sheet name="20150879" sheetId="17" r:id="rId20"/>
-    <sheet name="20154798" sheetId="18" r:id="rId21"/>
-    <sheet name="20150893" sheetId="19" r:id="rId22"/>
-    <sheet name="20154390" sheetId="20" r:id="rId23"/>
-    <sheet name="20150881" sheetId="21" r:id="rId24"/>
-    <sheet name="20154805" sheetId="22" r:id="rId25"/>
-    <sheet name="20150899" sheetId="23" r:id="rId26"/>
-    <sheet name="20150883" sheetId="24" r:id="rId27"/>
-    <sheet name="20150903" sheetId="25" r:id="rId28"/>
-    <sheet name="20150886" sheetId="26" r:id="rId29"/>
-    <sheet name="20150878" sheetId="27" r:id="rId30"/>
-    <sheet name="20150885" sheetId="28" r:id="rId31"/>
-    <sheet name="20150898" sheetId="29" r:id="rId32"/>
-    <sheet name="20150884" sheetId="30" r:id="rId33"/>
-    <sheet name="20154398" sheetId="31" r:id="rId34"/>
-    <sheet name="20150892" sheetId="32" r:id="rId35"/>
-    <sheet name="20154808" sheetId="33" r:id="rId36"/>
-    <sheet name="20150888" sheetId="34" r:id="rId37"/>
-    <sheet name="20150874" sheetId="35" r:id="rId38"/>
-    <sheet name="20150902" sheetId="36" r:id="rId39"/>
-    <sheet name="20150890" sheetId="37" r:id="rId40"/>
-    <sheet name="Sheet2" sheetId="38" r:id="rId41"/>
-    <sheet name="Sheet3" sheetId="39" r:id="rId42"/>
+    <sheet name="20150879" sheetId="16" r:id="rId19"/>
+    <sheet name="20150893" sheetId="17" r:id="rId20"/>
+    <sheet name="20150881" sheetId="18" r:id="rId21"/>
+    <sheet name="20150899" sheetId="19" r:id="rId22"/>
+    <sheet name="20150883" sheetId="20" r:id="rId23"/>
+    <sheet name="20150903" sheetId="21" r:id="rId24"/>
+    <sheet name="20150886" sheetId="22" r:id="rId25"/>
+    <sheet name="20150878" sheetId="23" r:id="rId26"/>
+    <sheet name="20150885" sheetId="24" r:id="rId27"/>
+    <sheet name="20150898" sheetId="25" r:id="rId28"/>
+    <sheet name="20150884" sheetId="26" r:id="rId29"/>
+    <sheet name="20150892" sheetId="27" r:id="rId30"/>
+    <sheet name="20150888" sheetId="28" r:id="rId31"/>
+    <sheet name="20150874" sheetId="29" r:id="rId32"/>
+    <sheet name="20150902" sheetId="30" r:id="rId33"/>
+    <sheet name="20150890" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -54,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -203,9 +197,6 @@
     <t>Adozinda Alberto Manhauss</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -242,9 +233,6 @@
     <t>Maria Languitone Bene</t>
   </si>
   <si>
-    <t>Distrito de Manica</t>
-  </si>
-  <si>
     <t>060702898563M</t>
   </si>
   <si>
@@ -269,9 +257,6 @@
     <t>Atalia Helena Nhampule</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -302,9 +287,6 @@
     <t>Alice Silva Mussane</t>
   </si>
   <si>
-    <t>Distrito de Chibuto</t>
-  </si>
-  <si>
     <t>090102284445Q</t>
   </si>
   <si>
@@ -329,9 +311,6 @@
     <t>Zulmira Mapatse</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100339937S</t>
   </si>
   <si>
@@ -356,9 +335,6 @@
     <t>Vacelina Marocane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110102312748Q</t>
   </si>
   <si>
@@ -503,9 +479,6 @@
     <t>Alice Fabiao Munde</t>
   </si>
   <si>
-    <t>Distrito de Xai-Xai</t>
-  </si>
-  <si>
     <t>090302520781M</t>
   </si>
   <si>
@@ -536,12 +509,6 @@
     <t>Escola Secundaria Eduardo Mondlane</t>
   </si>
   <si>
-    <t>Mate</t>
-  </si>
-  <si>
-    <t>Abel Ndavene</t>
-  </si>
-  <si>
     <t>Marranguene</t>
   </si>
   <si>
@@ -566,12 +533,6 @@
     <t>Escola Secundaria Emilia Dausse</t>
   </si>
   <si>
-    <t>Manteiga</t>
-  </si>
-  <si>
-    <t>Teresa Felizardo</t>
-  </si>
-  <si>
     <t>Maguele</t>
   </si>
   <si>
@@ -587,9 +548,6 @@
     <t>Ancha Lidia Macubalo</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -599,12 +557,6 @@
     <t>Escola Secundaria da Lhanguene</t>
   </si>
   <si>
-    <t>Machava</t>
-  </si>
-  <si>
-    <t>Filadelfia Catarina</t>
-  </si>
-  <si>
     <t xml:space="preserve">Macamo </t>
   </si>
   <si>
@@ -626,12 +578,6 @@
     <t>+258825958468</t>
   </si>
   <si>
-    <t>Langa</t>
-  </si>
-  <si>
-    <t>Lazia Dorcia Anastacio</t>
-  </si>
-  <si>
     <t>Ibraimo</t>
   </si>
   <si>
@@ -647,9 +593,6 @@
     <t>Margarida Paulino</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070102076288M</t>
   </si>
   <si>
@@ -674,9 +617,6 @@
     <t>Julia Machel</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>+258828990494</t>
   </si>
   <si>
@@ -812,12 +752,6 @@
     <t>Escola Secundaria Noroeste 1</t>
   </si>
   <si>
-    <t>Chiboze</t>
-  </si>
-  <si>
-    <t>Fernando</t>
-  </si>
-  <si>
     <t>Canole</t>
   </si>
   <si>
@@ -833,9 +767,6 @@
     <t>Beata Nkondia</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>110100322332B</t>
   </si>
   <si>
@@ -843,12 +774,6 @@
   </si>
   <si>
     <t>Escola Secundaria da Moamba</t>
-  </si>
-  <si>
-    <t>Bungane</t>
-  </si>
-  <si>
-    <t>Valdimira Beatriz</t>
   </si>
   <si>
     <t>Biosse</t>
@@ -2198,7 +2123,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2214,7 +2139,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2405,7 +2330,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2771,7 +2696,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2787,7 +2712,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2803,7 +2728,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2819,7 +2744,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2835,7 +2760,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2850,9 +2775,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2860,7 +2783,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2871,7 +2794,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2880,7 +2803,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2892,7 +2815,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2900,7 +2823,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2996,7 +2919,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3039,7 +2962,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3366,7 +3289,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3382,7 +3305,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3398,7 +3321,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3414,7 +3337,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3430,7 +3353,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3445,9 +3368,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3455,7 +3376,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3466,7 +3387,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3475,7 +3396,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3487,7 +3408,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3495,7 +3416,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3591,7 +3512,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3634,7 +3555,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3961,7 +3882,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3977,7 +3898,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3993,7 +3914,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4009,7 +3930,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4025,7 +3946,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4040,9 +3961,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4050,7 +3969,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4061,7 +3980,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4070,7 +3989,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4082,7 +4001,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4090,7 +4009,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4186,7 +4105,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4229,7 +4148,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4556,7 +4475,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4572,7 +4491,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4588,7 +4507,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4604,7 +4523,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4620,7 +4539,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4635,9 +4554,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4645,7 +4562,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4656,7 +4573,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4665,7 +4582,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4677,7 +4594,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4685,7 +4602,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4781,7 +4698,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4824,7 +4741,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5151,7 +5068,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5167,7 +5084,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5183,7 +5100,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5199,7 +5116,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5215,7 +5132,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5230,9 +5147,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5240,7 +5155,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5251,7 +5166,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5260,7 +5175,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5272,7 +5187,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5280,7 +5195,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5376,7 +5291,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5419,7 +5334,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5670,7 +5585,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -5720,7 +5637,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154775</v>
+        <v>20150879</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5744,7 +5661,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5760,7 +5677,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5775,7 +5692,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -5789,7 +5708,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -5803,7 +5724,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5824,7 +5747,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -5833,14 +5758,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -5850,13 +5779,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -5951,7 +5884,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5977,7 +5910,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -5991,7 +5926,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -6293,7 +6230,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150879</v>
+        <v>20150893</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6317,7 +6254,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6333,7 +6270,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6349,7 +6286,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6365,7 +6302,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6381,7 +6318,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6396,9 +6333,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6406,7 +6341,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6417,7 +6352,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6426,7 +6361,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6438,15 +6373,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>167</v>
+      <c r="H17" s="20">
+        <v>3970418</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6542,7 +6477,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6569,7 +6504,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6585,7 +6520,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6836,7 +6771,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -6886,7 +6823,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154798</v>
+        <v>20150881</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6910,7 +6847,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6926,7 +6863,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6941,7 +6878,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -6955,7 +6894,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -6969,7 +6910,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>173</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -6990,7 +6933,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -6999,14 +6944,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -7016,13 +6965,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -7117,7 +7070,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7143,7 +7096,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -7157,7 +7112,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -7459,7 +7416,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150893</v>
+        <v>20150899</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7483,7 +7440,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7499,7 +7456,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7515,7 +7472,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7531,7 +7488,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7547,7 +7504,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7562,9 +7519,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7572,7 +7527,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7583,7 +7538,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7592,7 +7547,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7604,15 +7559,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>3970418</v>
+      <c r="H17" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7708,7 +7663,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7751,7 +7706,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8157,9 +8112,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8167,7 +8120,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8178,7 +8131,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8187,7 +8140,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8199,7 +8152,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8207,7 +8160,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8303,7 +8256,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8346,7 +8299,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8597,7 +8550,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -8647,7 +8602,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154390</v>
+        <v>20150883</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8671,7 +8626,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8687,7 +8642,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8702,7 +8657,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -8716,7 +8673,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -8730,7 +8689,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -8751,7 +8712,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -8760,14 +8723,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -8777,13 +8744,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>3568033</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -8878,7 +8849,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8904,7 +8875,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -8918,7 +8891,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -9220,7 +9195,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150881</v>
+        <v>20150903</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9244,7 +9219,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9260,7 +9235,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9276,7 +9251,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9292,7 +9267,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9308,7 +9283,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9323,9 +9298,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9333,7 +9306,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9344,7 +9317,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9353,7 +9326,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9365,15 +9338,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>188</v>
+      <c r="H17" s="20">
+        <v>100104235798</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9469,7 +9442,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9496,7 +9469,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9512,7 +9485,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9763,7 +9736,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -9813,7 +9788,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154805</v>
+        <v>20150886</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9837,7 +9812,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9853,7 +9828,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9868,7 +9843,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>198</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -9882,7 +9859,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>199</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -9896,7 +9875,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>200</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9917,7 +9898,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -9926,14 +9909,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -9943,13 +9930,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>201</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10044,7 +10035,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10070,7 +10061,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10084,7 +10077,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -10386,7 +10381,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150899</v>
+        <v>20150878</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10410,7 +10405,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10426,7 +10421,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10442,7 +10437,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10458,7 +10453,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10474,7 +10469,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10489,9 +10484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>197</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10499,7 +10492,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10510,7 +10503,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10519,7 +10512,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10531,7 +10524,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10539,7 +10532,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10635,7 +10628,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10662,7 +10655,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10678,7 +10671,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10981,7 +10974,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150883</v>
+        <v>20150885</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11005,7 +10998,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11021,7 +11014,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11037,7 +11030,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11053,7 +11046,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11069,7 +11062,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11084,9 +11077,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11094,7 +11085,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11105,7 +11096,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11114,7 +11105,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11126,15 +11117,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>3568033</v>
+      <c r="H17" s="20" t="s">
+        <v>216</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11230,7 +11221,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11257,7 +11248,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11273,7 +11264,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11576,7 +11567,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150903</v>
+        <v>20150898</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11600,7 +11591,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11616,7 +11607,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11632,7 +11623,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11648,7 +11639,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11664,7 +11655,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11679,9 +11670,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11689,7 +11678,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11700,7 +11689,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11709,7 +11698,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11721,15 +11710,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>100104235798</v>
+      <c r="H17" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11825,7 +11814,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11868,7 +11857,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12171,7 +12160,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150886</v>
+        <v>20150884</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12195,7 +12184,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12211,7 +12200,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12227,7 +12216,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12243,7 +12232,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12259,7 +12248,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12274,9 +12263,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12284,7 +12271,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12295,7 +12282,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12304,7 +12291,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12316,7 +12303,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12324,7 +12311,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12420,7 +12407,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12463,7 +12450,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12766,7 +12753,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150878</v>
+        <v>20150892</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12790,7 +12777,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12806,7 +12793,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12822,7 +12809,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12838,7 +12825,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12854,7 +12841,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12869,9 +12856,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12879,7 +12864,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12890,7 +12875,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12899,7 +12884,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12911,7 +12896,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12919,7 +12904,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13015,7 +13000,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13042,7 +13027,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13058,7 +13043,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13361,7 +13346,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150885</v>
+        <v>20150888</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13385,7 +13370,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13401,7 +13386,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13417,7 +13402,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13433,7 +13418,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13449,7 +13434,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13464,9 +13449,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13474,7 +13457,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13485,7 +13468,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13494,7 +13477,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13506,7 +13489,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13514,7 +13497,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13610,7 +13593,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13637,7 +13620,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13653,7 +13636,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13956,7 +13939,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150898</v>
+        <v>20150874</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13980,7 +13963,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13996,7 +13979,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14012,7 +13995,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14028,7 +14011,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14044,7 +14027,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14059,9 +14042,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14069,7 +14050,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14080,7 +14061,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14089,7 +14070,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14101,7 +14082,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14109,7 +14090,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14205,7 +14186,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14232,7 +14213,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14248,7 +14229,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14575,7 +14556,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14591,7 +14572,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14607,7 +14588,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14623,7 +14604,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14639,7 +14620,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14654,9 +14635,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14664,7 +14643,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14675,7 +14654,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14684,7 +14663,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14696,7 +14675,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14704,7 +14683,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14800,7 +14779,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14843,7 +14822,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15146,7 +15125,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150884</v>
+        <v>20150902</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15170,7 +15149,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15186,7 +15165,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15202,7 +15181,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15218,7 +15197,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15234,7 +15213,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15249,9 +15228,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15259,7 +15236,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15270,7 +15247,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15279,7 +15256,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15291,7 +15268,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15299,7 +15276,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15395,7 +15372,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15438,7 +15415,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>251</v>
+        <v>168</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15689,7 +15666,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -15739,7 +15718,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154398</v>
+        <v>20150890</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15763,7 +15742,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15779,7 +15758,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15794,7 +15773,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>266</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -15808,7 +15789,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>267</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -15822,7 +15805,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>268</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -15843,7 +15828,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -15852,14 +15839,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -15869,13 +15860,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>269</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -15970,7 +15965,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15996,7 +15991,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -16010,7 +16007,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>271</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -16212,3552 +16211,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150892</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154808</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150888</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150874</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150902</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150890</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -19781,7 +16234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19938,7 +16391,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19954,7 +16407,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19970,7 +16423,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19986,7 +16439,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20002,7 +16455,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20017,9 +16470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20027,7 +16478,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20038,7 +16489,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20047,7 +16498,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20059,7 +16510,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20067,7 +16518,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20163,7 +16614,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20206,7 +16657,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20533,7 +16984,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20549,7 +17000,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20565,7 +17016,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20581,7 +17032,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20597,7 +17048,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20612,9 +17063,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20622,7 +17071,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20633,7 +17082,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20642,7 +17091,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20654,7 +17103,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20662,7 +17111,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20758,7 +17207,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20801,7 +17250,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21128,7 +17577,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21144,7 +17593,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21160,7 +17609,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21176,7 +17625,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21192,7 +17641,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21207,9 +17656,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21217,7 +17664,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21228,7 +17675,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21237,7 +17684,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21249,7 +17696,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21257,7 +17704,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21353,7 +17800,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21396,7 +17843,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21723,7 +18170,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21739,7 +18186,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21755,7 +18202,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21771,7 +18218,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21787,7 +18234,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21802,9 +18249,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21812,7 +18257,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21823,7 +18268,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21832,7 +18277,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21844,7 +18289,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21852,7 +18297,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21948,7 +18393,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21991,7 +18436,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22318,7 +18763,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22334,7 +18779,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22350,7 +18795,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22366,7 +18811,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22382,7 +18827,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22397,9 +18842,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22407,7 +18850,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22418,7 +18861,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22427,7 +18870,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22439,7 +18882,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22447,7 +18890,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22543,7 +18986,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22586,7 +19029,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22913,7 +19356,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22929,7 +19372,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22945,7 +19388,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22961,7 +19404,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22977,7 +19420,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22992,9 +19435,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23002,7 +19443,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23013,7 +19454,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23022,7 +19463,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23034,7 +19475,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23042,7 +19483,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23138,7 +19579,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23181,7 +19622,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
